--- a/tests/data/output/multireports/test_oxidation_ave_std.xlsx
+++ b/tests/data/output/multireports/test_oxidation_ave_std.xlsx
@@ -457,17 +457,17 @@
     <row r="1">
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>temp_i_K</t>
+          <t>temp_i_C</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>temp_p_K</t>
+          <t>temp_p_C</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>temp_b_K</t>
+          <t>temp_b_C</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
@@ -479,7 +479,7 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>cell</t>
+          <t>sda</t>
         </is>
       </c>
       <c r="B2" s="1" t="inlineStr">
@@ -488,16 +488,16 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>535.2540624725805</v>
+        <v>293.3789593752742</v>
       </c>
       <c r="D2" t="n">
-        <v>587.1343818548741</v>
+        <v>319.7859085724313</v>
       </c>
       <c r="E2" t="n">
-        <v>789.8543958936563</v>
+        <v>692.0171975081162</v>
       </c>
       <c r="F2" t="n">
-        <v>1.552134877834513e-09</v>
+        <v>5.680063099337505e-09</v>
       </c>
     </row>
     <row r="3">
@@ -508,22 +508,22 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>0.9430572145332355</v>
+        <v>1.700120571347938</v>
       </c>
       <c r="D3" t="n">
-        <v>0.5736393088489955</v>
+        <v>0.6800482285391909</v>
       </c>
       <c r="E3" t="n">
-        <v>0.3266846020031893</v>
+        <v>24.73669813671493</v>
       </c>
       <c r="F3" t="n">
-        <v>7.000359079474953e-11</v>
+        <v>2.406945446611781e-10</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>misc</t>
+          <t>sdb</t>
         </is>
       </c>
       <c r="B4" s="1" t="inlineStr">
@@ -532,16 +532,16 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>451.3653198210055</v>
+        <v>188.818110028955</v>
       </c>
       <c r="D4" t="n">
-        <v>625.1443844871458</v>
+        <v>403.207861717996</v>
       </c>
       <c r="E4" t="n">
-        <v>916.0209309467405</v>
+        <v>741.0300956392033</v>
       </c>
       <c r="F4" t="n">
-        <v>5.818052602369504e-10</v>
+        <v>4.317525408314656e-09</v>
       </c>
     </row>
     <row r="5">
@@ -552,22 +552,22 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>3.060217028426313</v>
+        <v>0.9935724281452066</v>
       </c>
       <c r="D5" t="n">
-        <v>0.5250720351188328</v>
+        <v>0.09430572145332355</v>
       </c>
       <c r="E5" t="n">
-        <v>7.224704633481335</v>
+        <v>12.43155461840586</v>
       </c>
       <c r="F5" t="n">
-        <v>1.606175389866586e-11</v>
+        <v>1.870413752905868e-10</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>sda</t>
+          <t>cell_ox5</t>
         </is>
       </c>
       <c r="B6" s="1" t="inlineStr">
@@ -576,16 +576,16 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>566.5289593752742</v>
+        <v>262.1040624725805</v>
       </c>
       <c r="D6" t="n">
-        <v>592.9359085724313</v>
+        <v>313.9843818548741</v>
       </c>
       <c r="E6" t="n">
-        <v>965.1671975081163</v>
+        <v>516.7043958936562</v>
       </c>
       <c r="F6" t="n">
-        <v>1.091620915251824e-09</v>
+        <v>9.893508696569157e-09</v>
       </c>
     </row>
     <row r="7">
@@ -596,22 +596,22 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>1.700120571347957</v>
+        <v>0.9430572145332355</v>
       </c>
       <c r="D7" t="n">
-        <v>0.6800482285391649</v>
+        <v>0.5736393088490197</v>
       </c>
       <c r="E7" t="n">
-        <v>24.73669813671488</v>
+        <v>0.3266846020031893</v>
       </c>
       <c r="F7" t="n">
-        <v>4.230267977819074e-11</v>
+        <v>4.140689452230553e-10</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>sdb</t>
+          <t>cell_ox10</t>
         </is>
       </c>
       <c r="B8" s="1" t="inlineStr">
@@ -620,16 +620,16 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>461.9681100289549</v>
+        <v>269.539352461174</v>
       </c>
       <c r="D8" t="n">
-        <v>676.357861717996</v>
+        <v>341.6583311397736</v>
       </c>
       <c r="E8" t="n">
-        <v>1014.180095639203</v>
+        <v>525.9068175835746</v>
       </c>
       <c r="F8" t="n">
-        <v>5.268025812960268e-10</v>
+        <v>1.04168603750401e-08</v>
       </c>
     </row>
     <row r="9">
@@ -640,22 +640,22 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>0.9935724281452086</v>
+        <v>0.1000263227165021</v>
       </c>
       <c r="D9" t="n">
-        <v>0.09430572145329676</v>
+        <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>12.43155461840586</v>
+        <v>0.4001052908660654</v>
       </c>
       <c r="F9" t="n">
-        <v>1.863714696092288e-11</v>
+        <v>5.594285265848548e-12</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>dig</t>
+          <t>cell_ox50</t>
         </is>
       </c>
       <c r="B10" s="1" t="inlineStr">
@@ -664,16 +664,16 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>394.0168947968764</v>
+        <v>284.8433798367992</v>
       </c>
       <c r="D10" t="n">
-        <v>786.0533956304292</v>
+        <v>365.3645696235851</v>
       </c>
       <c r="E10" t="n">
-        <v>1153.15</v>
+        <v>554.7143985259279</v>
       </c>
       <c r="F10" t="n">
-        <v>1.308519191357978e-10</v>
+        <v>7.852841893143091e-09</v>
       </c>
     </row>
     <row r="11">
@@ -684,16 +684,16 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>1.225974378893233</v>
+        <v>0.2000526454330043</v>
       </c>
       <c r="D11" t="n">
-        <v>0.2829171643599975</v>
+        <v>1.300342195314556</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>2.200579099763104</v>
       </c>
       <c r="F11" t="n">
-        <v>6.615023380262521e-12</v>
+        <v>3.975100835571688e-11</v>
       </c>
     </row>
   </sheetData>
